--- a/frontend/src/assets/data/transaction.xlsx
+++ b/frontend/src/assets/data/transaction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Transaction Id</t>
   </si>
@@ -34,10 +34,16 @@
     <t>Note</t>
   </si>
   <si>
+    <t>19/9/2024</t>
+  </si>
+  <si>
+    <t>Cig</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t>Expenses</t>
   </si>
 </sst>
 </file>
@@ -45,13 +51,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -89,26 +101,26 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -415,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -429,7 +441,7 @@
     <col min="6" max="6" style="8" width="6.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,19 +465,37 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>400</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>45635</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>200</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
